--- a/Assets/Resources/Data/HonkaiImpact3rdDB.xlsx
+++ b/Assets/Resources/Data/HonkaiImpact3rdDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GameDesigner2\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS42 8RC\Desktop\GameDesigner2\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224075A0-448A-4DF7-8B8E-FE922274DAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A07E72-09C8-4D0D-92EE-4E97061A9D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="6120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="characterSheet" sheetId="1" r:id="rId1"/>
@@ -812,9 +812,6 @@
     <t>hov</t>
   </si>
   <si>
-    <t>hsf</t>
-  </si>
-  <si>
     <t>ci</t>
   </si>
   <si>
@@ -919,9 +916,6 @@
     <t>portrait-hov</t>
   </si>
   <si>
-    <t>portrait-hsf</t>
-  </si>
-  <si>
     <t>portrait-ci</t>
   </si>
   <si>
@@ -1252,6 +1246,14 @@
   </si>
   <si>
     <t>RankFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait-hfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3926,33 +3928,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A388C2-DCF0-4D5C-986B-4DAD8D877A96}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="11.8984375" customWidth="1"/>
-    <col min="12" max="12" width="27.8984375" style="37" customWidth="1"/>
-    <col min="13" max="13" width="19.296875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" style="1" customWidth="1"/>
+    <col min="6" max="11" width="11.9140625" customWidth="1"/>
+    <col min="12" max="12" width="27.9140625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="37" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="40.296875" customWidth="1"/>
-    <col min="17" max="17" width="19.796875" customWidth="1"/>
-    <col min="18" max="18" width="40.59765625" customWidth="1"/>
-    <col min="19" max="24" width="8.69921875" customWidth="1"/>
-    <col min="25" max="26" width="5.19921875" customWidth="1"/>
-    <col min="27" max="27" width="9.296875" customWidth="1"/>
-    <col min="28" max="28" width="9.69921875" customWidth="1"/>
+    <col min="16" max="16" width="40.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" customWidth="1"/>
+    <col min="18" max="18" width="40.58203125" customWidth="1"/>
+    <col min="19" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="26" width="5.1640625" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>128</v>
       </c>
@@ -3990,22 +3992,22 @@
         <v>184</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P1" s="41" t="s">
         <v>185</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="30">
         <v>100000</v>
       </c>
@@ -4040,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30">
         <v>100001</v>
       </c>
@@ -4084,10 +4086,10 @@
         <v>186</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="30">
         <v>100002</v>
       </c>
@@ -4125,10 +4127,10 @@
         <v>187</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="30">
         <v>100003</v>
       </c>
@@ -4166,10 +4168,10 @@
         <v>188</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="30">
         <v>100004</v>
       </c>
@@ -4207,10 +4209,10 @@
         <v>189</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="30">
         <v>100005</v>
       </c>
@@ -4248,10 +4250,10 @@
         <v>190</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="30">
         <v>100006</v>
       </c>
@@ -4286,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="30">
         <v>100100</v>
       </c>
@@ -4327,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>100101</v>
       </c>
@@ -4368,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="30">
         <v>100102</v>
       </c>
@@ -4409,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="30">
         <v>100103</v>
       </c>
@@ -4450,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="30">
         <v>100104</v>
       </c>
@@ -4491,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="30">
         <v>100105</v>
       </c>
@@ -4532,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>100106</v>
       </c>
@@ -4573,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="30">
         <v>100200</v>
       </c>
@@ -4614,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>100201</v>
       </c>
@@ -4655,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="30">
         <v>100202</v>
       </c>
@@ -4696,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="30">
         <v>100203</v>
       </c>
@@ -4737,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="30">
         <v>100204</v>
       </c>
@@ -4778,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="30">
         <v>100205</v>
       </c>
@@ -4819,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="30">
         <v>100206</v>
       </c>
@@ -4860,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="30">
         <v>100207</v>
       </c>
@@ -4901,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="30">
         <v>100208</v>
       </c>
@@ -4942,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="30">
         <v>100209</v>
       </c>
@@ -4983,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="30">
         <v>100300</v>
       </c>
@@ -5024,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="30">
         <v>100301</v>
       </c>
@@ -5065,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="30">
         <v>100301</v>
       </c>
@@ -5106,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="30">
         <v>100301</v>
       </c>
@@ -5147,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="30">
         <v>100301</v>
       </c>
@@ -5188,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="30">
         <v>100301</v>
       </c>
@@ -5229,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="30">
         <v>100400</v>
       </c>
@@ -5270,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="30">
         <v>100401</v>
       </c>
@@ -5311,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="30">
         <v>100402</v>
       </c>
@@ -5352,13 +5354,13 @@
         <v>0</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="30">
         <v>100403</v>
       </c>
@@ -5393,13 +5395,13 @@
         <v>0</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="30">
         <v>100404</v>
       </c>
@@ -5437,10 +5439,10 @@
         <v>138</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="30">
         <v>100405</v>
       </c>
@@ -5478,10 +5480,10 @@
         <v>140</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="30">
         <v>100406</v>
       </c>
@@ -5519,10 +5521,10 @@
         <v>141</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="30">
         <v>100500</v>
       </c>
@@ -5560,10 +5562,10 @@
         <v>142</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="30">
         <v>100501</v>
       </c>
@@ -5601,10 +5603,10 @@
         <v>143</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="30">
         <v>100502</v>
       </c>
@@ -5642,10 +5644,10 @@
         <v>144</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="30">
         <v>100503</v>
       </c>
@@ -5683,10 +5685,10 @@
         <v>145</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="30">
         <v>100504</v>
       </c>
@@ -5724,10 +5726,10 @@
         <v>146</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="30">
         <v>100505</v>
       </c>
@@ -5765,10 +5767,10 @@
         <v>147</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="30">
         <v>100506</v>
       </c>
@@ -5806,10 +5808,10 @@
         <v>148</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="30">
         <v>100600</v>
       </c>
@@ -5847,10 +5849,10 @@
         <v>149</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="30">
         <v>100601</v>
       </c>
@@ -5888,10 +5890,10 @@
         <v>150</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="30">
         <v>100602</v>
       </c>
@@ -5929,10 +5931,10 @@
         <v>151</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="30">
         <v>100603</v>
       </c>
@@ -5970,10 +5972,10 @@
         <v>152</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="30">
         <v>100604</v>
       </c>
@@ -6011,10 +6013,10 @@
         <v>153</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="30">
         <v>100700</v>
       </c>
@@ -6052,10 +6054,10 @@
         <v>154</v>
       </c>
       <c r="M51" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="30">
         <v>100701</v>
       </c>
@@ -6093,10 +6095,10 @@
         <v>155</v>
       </c>
       <c r="M52" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="30">
         <v>100702</v>
       </c>
@@ -6134,10 +6136,10 @@
         <v>156</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="30">
         <v>100703</v>
       </c>
@@ -6175,10 +6177,10 @@
         <v>157</v>
       </c>
       <c r="M54" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="30">
         <v>100800</v>
       </c>
@@ -6216,10 +6218,10 @@
         <v>158</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="30">
         <v>100801</v>
       </c>
@@ -6257,10 +6259,10 @@
         <v>159</v>
       </c>
       <c r="M56" s="38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="30">
         <v>100802</v>
       </c>
@@ -6298,10 +6300,10 @@
         <v>160</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="30">
         <v>100900</v>
       </c>
@@ -6339,10 +6341,10 @@
         <v>162</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="30">
         <v>100901</v>
       </c>
@@ -6380,10 +6382,10 @@
         <v>163</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="30">
         <v>100902</v>
       </c>
@@ -6421,10 +6423,10 @@
         <v>164</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="30">
         <v>101000</v>
       </c>
@@ -6462,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="30">
         <v>101001</v>
       </c>
@@ -6503,10 +6505,10 @@
         <v>166</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="30">
         <v>101002</v>
       </c>
@@ -6544,10 +6546,10 @@
         <v>167</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="30">
         <v>101100</v>
       </c>
@@ -6585,10 +6587,10 @@
         <v>168</v>
       </c>
       <c r="M64" s="38" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="30">
         <v>101101</v>
       </c>
@@ -6626,10 +6628,10 @@
         <v>169</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="30">
         <v>101102</v>
       </c>
@@ -6667,10 +6669,10 @@
         <v>170</v>
       </c>
       <c r="M66" s="38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="30">
         <v>101103</v>
       </c>
@@ -6708,10 +6710,10 @@
         <v>171</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="30">
         <v>101200</v>
       </c>
@@ -6749,10 +6751,10 @@
         <v>172</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="30">
         <v>101300</v>
       </c>
@@ -6790,10 +6792,10 @@
         <v>173</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="30">
         <v>101301</v>
       </c>
@@ -6831,10 +6833,10 @@
         <v>174</v>
       </c>
       <c r="M70" s="38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="30">
         <v>101400</v>
       </c>
@@ -6872,10 +6874,10 @@
         <v>175</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="30">
         <v>101500</v>
       </c>
@@ -6913,10 +6915,10 @@
         <v>176</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="30">
         <v>101600</v>
       </c>
@@ -6954,10 +6956,10 @@
         <v>177</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="30">
         <v>101700</v>
       </c>
@@ -6995,10 +6997,10 @@
         <v>178</v>
       </c>
       <c r="M74" s="38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="30">
         <v>101800</v>
       </c>
@@ -7036,10 +7038,10 @@
         <v>179</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="30">
         <v>101900</v>
       </c>
@@ -7077,10 +7079,10 @@
         <v>180</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="30">
         <v>102000</v>
       </c>
@@ -7118,10 +7120,10 @@
         <v>181</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="30">
         <v>102100</v>
       </c>
@@ -7159,10 +7161,10 @@
         <v>182</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="31">
         <v>102200</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>183</v>
       </c>
       <c r="M79" s="39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7226,19 +7228,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0760ADE8-934E-48F1-8D91-337BB46021CC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.9140625" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="21.09765625" customWidth="1"/>
+    <col min="5" max="5" width="21.08203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>137</v>
       </c>
@@ -7246,16 +7250,16 @@
         <v>126</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>110000</v>
       </c>
@@ -7263,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>110001</v>
       </c>
@@ -7274,10 +7278,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>110002</v>
       </c>
@@ -7285,10 +7289,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>110003</v>
       </c>
@@ -7296,10 +7300,10 @@
         <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="9">
         <v>110004</v>
       </c>
@@ -7307,14 +7311,14 @@
         <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7327,22 +7331,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6BFA-AEF6-42AE-B226-80B4DC19C3A7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>136</v>
       </c>
@@ -7350,16 +7354,16 @@
         <v>126</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>120000</v>
       </c>
@@ -7378,10 +7382,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>120001</v>
       </c>
@@ -7389,10 +7393,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>120002</v>
       </c>
@@ -7400,10 +7404,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>120003</v>
       </c>
@@ -7411,10 +7415,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>120004</v>
       </c>
@@ -7422,10 +7426,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>120005</v>
       </c>
@@ -7433,10 +7437,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>120006</v>
       </c>
@@ -7444,10 +7448,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>120007</v>
       </c>
@@ -7455,10 +7459,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>120008</v>
       </c>
@@ -7466,10 +7470,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>120009</v>
       </c>
@@ -7477,10 +7481,10 @@
         <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>120010</v>
       </c>
@@ -7488,10 +7492,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>120011</v>
       </c>
@@ -7499,10 +7503,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>120012</v>
       </c>
@@ -7510,10 +7514,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>120013</v>
       </c>
@@ -7521,10 +7525,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>120014</v>
       </c>
@@ -7532,10 +7536,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>120015</v>
       </c>
@@ -7543,10 +7547,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>120016</v>
       </c>
@@ -7554,10 +7558,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="9">
         <v>120017</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7582,69 +7586,69 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.4140625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/HonkaiImpact3rdDB.xlsx
+++ b/Assets/Resources/Data/HonkaiImpact3rdDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS42 8RC\Desktop\GameDesigner2\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GameDesigner2\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A07E72-09C8-4D0D-92EE-4E97061A9D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEB8E2-FD63-48C1-84DA-C0F756B027D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
+    <workbookView xWindow="6804" yWindow="2556" windowWidth="23040" windowHeight="12216" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="characterSheet" sheetId="1" r:id="rId1"/>
@@ -3930,31 +3930,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="11.9140625" customWidth="1"/>
-    <col min="12" max="12" width="27.9140625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="37" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="11.8984375" customWidth="1"/>
+    <col min="12" max="12" width="27.8984375" style="37" customWidth="1"/>
+    <col min="13" max="13" width="19.296875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="40.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" customWidth="1"/>
-    <col min="18" max="18" width="40.58203125" customWidth="1"/>
-    <col min="19" max="24" width="8.6640625" customWidth="1"/>
-    <col min="25" max="26" width="5.1640625" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="40.296875" customWidth="1"/>
+    <col min="17" max="17" width="19.796875" customWidth="1"/>
+    <col min="18" max="18" width="40.59765625" customWidth="1"/>
+    <col min="19" max="24" width="8.69921875" customWidth="1"/>
+    <col min="25" max="26" width="5.19921875" customWidth="1"/>
+    <col min="27" max="27" width="9.296875" customWidth="1"/>
+    <col min="28" max="28" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>128</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="30">
         <v>100000</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="30">
         <v>100001</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="30">
         <v>100002</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="30">
         <v>100003</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="30">
         <v>100004</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30">
         <v>100005</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30">
         <v>100006</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="30">
         <v>100100</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="30">
         <v>100101</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30">
         <v>100102</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="30">
         <v>100103</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="30">
         <v>100104</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="30">
         <v>100105</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="30">
         <v>100106</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="30">
         <v>100200</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="30">
         <v>100201</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="30">
         <v>100202</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="30">
         <v>100203</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="30">
         <v>100204</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="30">
         <v>100205</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="30">
         <v>100206</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="30">
         <v>100207</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="30">
         <v>100208</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="30">
         <v>100209</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="30">
         <v>100300</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="30">
         <v>100301</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="30">
         <v>100301</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="30">
         <v>100301</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="30">
         <v>100301</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="30">
         <v>100301</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="30">
         <v>100400</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="30">
         <v>100401</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="30">
         <v>100402</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="30">
         <v>100403</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="30">
         <v>100404</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="30">
         <v>100405</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="30">
         <v>100406</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="30">
         <v>100500</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="30">
         <v>100501</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="30">
         <v>100502</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="30">
         <v>100503</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="30">
         <v>100504</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="30">
         <v>100505</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="30">
         <v>100506</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="30">
         <v>100600</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="30">
         <v>100601</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="30">
         <v>100602</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="30">
         <v>100603</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="30">
         <v>100604</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="30">
         <v>100700</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="30">
         <v>100701</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="30">
         <v>100702</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="30">
         <v>100703</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="30">
         <v>100800</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="30">
         <v>100801</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="30">
         <v>100802</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="30">
         <v>100900</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="30">
         <v>100901</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="30">
         <v>100902</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="30">
         <v>101000</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="30">
         <v>101001</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="30">
         <v>101002</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="30">
         <v>101100</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="30">
         <v>101101</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="30">
         <v>101102</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="30">
         <v>101103</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="30">
         <v>101200</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="30">
         <v>101300</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="30">
         <v>101301</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="30">
         <v>101400</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="30">
         <v>101500</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="30">
         <v>101600</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="30">
         <v>101700</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="30">
         <v>101800</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="30">
         <v>101900</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="30">
         <v>102000</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="30">
         <v>102100</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="31">
         <v>102200</v>
       </c>
@@ -7228,21 +7228,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0760ADE8-934E-48F1-8D91-337BB46021CC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="16.9140625" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="21.08203125" customWidth="1"/>
+    <col min="5" max="5" width="21.09765625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>137</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>110000</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>110001</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>110002</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>110003</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>110004</v>
       </c>
@@ -7314,11 +7314,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7331,22 +7331,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6BFA-AEF6-42AE-B226-80B4DC19C3A7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>136</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -7374,7 +7372,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>120000</v>
       </c>
@@ -7385,7 +7383,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>120001</v>
       </c>
@@ -7396,7 +7394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>120002</v>
       </c>
@@ -7407,7 +7405,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>120003</v>
       </c>
@@ -7418,7 +7416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>120004</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>120005</v>
       </c>
@@ -7440,7 +7438,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>120006</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>120007</v>
       </c>
@@ -7462,7 +7460,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>120008</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>120009</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>120010</v>
       </c>
@@ -7495,7 +7493,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>120011</v>
       </c>
@@ -7506,7 +7504,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>120012</v>
       </c>
@@ -7517,7 +7515,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>120013</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>120014</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>120015</v>
       </c>
@@ -7550,7 +7548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>120016</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>120017</v>
       </c>
@@ -7586,17 +7584,17 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.4140625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>129</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -7618,7 +7616,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
@@ -7626,7 +7624,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -7634,21 +7632,21 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
